--- a/project001/image/news/뉴스칸에 넣을 뉴스들 정리.xlsx
+++ b/project001/image/news/뉴스칸에 넣을 뉴스들 정리.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="9.1" lowestEdited="9.1" rupBuild="1.3237"/>
+  <x:fileVersion appName="HCell" lastEdited="11.0" lowestEdited="11.0" rupBuild="0.4167"/>
+  <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssole\Documents\GitHub\portfolio\project001\image\news\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="6765" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="3780" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
     <x:sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </x:sheets>
-  <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="1"/>
+  <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
 </file>
 
@@ -1077,520 +1083,574 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="169">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="187">
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/421/0006567199?sid=101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/014/0004951632?sid=103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://pixabay.com/photos/cat-pet-licking-animal-tabby-cat-323262/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://pixabay.com/photos/pets-cat-dog-animals-mammals-3715733/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/421/0006542895?sid=103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/119/0002662669?sid=101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/421/0006480429?sid=101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://pixabay.com/photos/dogs-herd-canine-animals-pets-2691871/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://pixabay.com/photos/dog-animal-mammal-canine-pet-3194862/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://pixabay.com/photos/animal-mouse-experiment-laboratory-1554745/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://pixabay.com/photos/horses-pony-animal-rescue-ungulates-1320678/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://hypebeast.kr/2023/1/california-first-state-ban-animal-fur-sales</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://pixabay.com/photos/marten-martes-martes-beast-predator-881029/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://pixabay.com/photos/cat-iced-coffee-cafe-persian-cat-6154885/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://pixabay.com/photos/monkeys-watch-out-zoo-child-2643024/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/003/0011602830?sid=102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ktnews.com/news/articleView.html?idxno=125162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.viva100.com/main/view.php?key=20221107010001553</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.dailyvet.co.kr/news/prevention-hygiene/177673</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://mobile.newsis.com/view.html?ar_id=NISX20221216_0002125717#_enliple</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://unsplash.com/ko/%EC%82%AC%EC%A7%84/fKC9eWRnlGY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.vegannews.co.kr/news/article.html?no=14076</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://unsplash.com/ko/%EC%82%AC%EC%A7%84/Lr_MKzNGhUU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.vegannews.co.kr/news/article.html?no=14325</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://unsplash.com/ko/%EC%82%AC%EC%A7%84/RlOAwXt2fEA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.vegannews.co.kr/news/article.html?no=14330</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://entertain.naver.com/read?oid=437&amp;aid=0000326529</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.vegannews.co.kr/news/article.html?no=14295</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://unsplash.com/ko/%EC%82%AC%EC%A7%84/rHCNMH9Vlmw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.vegannews.co.kr/news/article.html?no=14355</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/article/028/0002596607</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/article/469/0000686158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/008/0004838326?sid=102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/025/0003243286?sid=102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/469/0000710601?sid=103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/014/0004930918?sid=102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/277/0005159201?sid=104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/055/0001021171?sid=104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/003/0011580708?sid=104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/029/0002767296?sid=104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/057/0001712878?sid=104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/009/0005005706?sid=103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/032/0003163802?sid=103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/469/0000701869?sid=103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/009/0005021535?sid=101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/469/0000712991?sid=103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/023/0003734987?sid=102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/028/0002618600?sid=103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/366/0000862283?sid=104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/057/0001694936?sid=102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/028/0002618019?sid=102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/214/0001239465?sid=102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.chemicalnews.co.kr/news/articleView.html?idxno=4865</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.newsquest.co.kr/news/articleView.html?idxno=100468</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/018/0005366389?sid=102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/001/0013655797?sid=104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/018/0005360335?sid=102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/003/0011609784?sid=102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/025/0003250956?sid=101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/028/0002618643?sid=103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/001/0013571496?sid=102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/022/0003762035?sid=100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>머스크 '뉴럴링크', 실험 동물 1500마리 떼죽음…美 조사 착수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상어 사체 앞 인증샷 이벤트…‘동물학대 논란’ 이마트, 결국 사과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"수족관 돌고래 만지면 안돼요"…동물원수족관법 등 환경법안 국회 통과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://v.daum.net/v/20221119000610432</x:t>
+  </x:si>
+  <x:si>
+    <x:t>증언 못하는 동물 대신 목소리 내다… 산양 56마리와 소송 건 변호사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동물 ‘보호’→‘복지’로 정책 개편…“농장·실험동물은 빠져” 비판도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전국 곰 사육 농가 20개, 총 313마리…모두 "그만하고 싶다"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>망치로 개 때려죽인 동물카페 사장…남은 50마리 구조 못한다, 왜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://pixabay.com/illustrations/virus-microscope-infection-disease-4051654/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>들쭉날쭉' 동물병원 진료비 5일부터 게시 의무화..펫보험 시장 활성화 기대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스페인, 생태계 보전 위해 토끼·햄스터·거북 등 반려동물 금지 법제화 추진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.etoday.co.kr/news/view/2199972</x:t>
+  </x:si>
+  <x:si>
+    <x:t>'들쭉날쭉' 동물병원 진료비 5일부터 게시 의무화..펫보험 시장 활성화 기대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"상처입은 사자의 눈빛 안 잊혀…" 동물학대 논란 1도 없는 동물 서커스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"동물 가죽 입을 바에 나체로 다닐 것"...알리시아 실버스톤 화보 공개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>‘쇠퇴하는 모피 산업’ 덴마크 밍크 사육 금지령 풀려…모피 농장 내년 재개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.me.go.kr/home/web/board/read.do?menuId=10525&amp;boardMasterId=1&amp;boardCategoryId=39&amp;boardId=1560510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>'신고 없이' 음식 폐기물을 먹이로‥동물 농장 무더기 적발</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경부, 최대 400마리 수용 규모 야생동물 보호시설 착공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>‘모피 대신 페이크 퍼’… 위메프, 비건 패션 아이템 판매 ↑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>‘펫숍·동물실험 화장품 퇴출’ 뉴욕, 동물을 위한 잇단 결정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"한국 수의사, 선진국보다 많아…동물 진료비 부가세 면세해야"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>‘곰 탈출 반복’ 농장 인명피해…정부·국회 안이함이 낳은 비극</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최근 3년간 길위에서 죽은 야생동물 4만3천마리…67%는 고라니</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【공장식 축산을 고발한다⑤】 어디로 가는가, 고기의 미래는</x:t>
+  </x:si>
+  <x:si>
+    <x:t>“다 반년 안 돼 관둬요” 극성 민원에 표류하는 냥이 정책</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"반려동물 고통 없이 죽을 권리 보장"…수의사법 개정안 발의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뉴욕에선 '반려동물 쇼핑' 못 한다…펫숍 통한 동물판매 금지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>“동물실험에 한해 488만마리 고통…‘대체 기술’ 법안 필요해”</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유엔 생물다양성회의, 전세계 육지·바다의 30% 보호 합의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>'산 채로 분쇄기' 수평아리 대학살 막을 유전자 편집 기술 개발</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해외 스타들, 동물학대 논란 ‘뉴욕 관광 마차’ 폐지 촉구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>'동물권도 중요해'…벨기에 지방정부, 개 짖음방지 목줄 등 금지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이기영 고양이 괴롭히며 희희낙락…"사이코패스 특징, 동물학대"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>잔인하게 개 도살, 허가 없이 번식·경매…동물 불법행위 적발</x:t>
+  </x:si>
   <x:si>
     <x:t>작년 실험동물 488만 마리 ‘역대 최대’…절반은 극심한 고통</x:t>
   </x:si>
   <x:si>
-    <x:t>‘모피 대신 페이크 퍼’… 위메프, 비건 패션 아이템 판매 ↑</x:t>
+    <x:t>제임스 카메론 감독, 日 돌고래쇼 논란에 "동의한 적 없는 쇼"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한국HSI "동물대체시험 활성화법 발의 환영…범정부 지원 필요"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연쇄살인' 전조…美 FBI가 '동물학대범' 관리할 때 韓은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반려동물 아무나 못 판다…불법 판매시 최대 2년 이하 징역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고양이도 반려동물 등록 의무화… 태영호, 동물보호법 개정안 발의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>'연쇄살인' 전조…美 FBI가 '동물학대범' 관리할 때 韓은?</x:t>
   </x:si>
   <x:si>
     <x:t>영국 왕실 `푸아그라 요리` 퇴출한다…"오리 강제사육 안돼"</x:t>
   </x:si>
   <x:si>
-    <x:t>“다 반년 안 돼 관둬요” 극성 민원에 표류하는 냥이 정책</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경부, 최대 400마리 수용 규모 야생동물 보호시설 착공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최근 3년간 길위에서 죽은 야생동물 4만3천마리…67%는 고라니</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해외 스타들, 동물학대 논란 ‘뉴욕 관광 마차’ 폐지 촉구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.dailyvet.co.kr/news/prevention-hygiene/177673</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ktnews.com/news/articleView.html?idxno=125162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.viva100.com/main/view.php?key=20221107010001553</x:t>
+    <x:t>"인조모피로 대체"…가치소비 열풍에 MZ세대 '비건 패션' 인기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.12.10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.11.30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.12.16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.12.03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.12.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023.01.01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.12.17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.12.19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.12.07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>야생동물도 서울살이 힘들다… 올 1700마리가 SOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인체조직 모델로 동물실험 대체…대체시험법에 뛰어든 바이오</x:t>
+  </x:si>
+  <x:si>
+    <x:t>야생동물질병관리원 ‘ASF 맷돼지 미끼백신 개발 가능성’</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동림 - 리얼같은 인조 퍼 개발해 ‘세계적 명성’ 얻어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1억 마리 상어의 눈물… 특급호텔 13곳서 샥스핀 판매</x:t>
+  </x:si>
+  <x:si>
+    <x:t>살아있는 악어 대신 ‘악어가죽 가방’을 전시한 동물원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>'무척추동물' 오징어, 문어는 함부로 해부해도 되나요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"물고기도 동물"···생선 손질에도 국제기준 생긴다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동물학대범 처벌 수위 ‘들쭉날쭉’… 양형기준 마련 시급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>'물고기도 아프다' 英 동물복지 어업으로 확대 움직임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공장식 축산이 지구에 미치는 영향</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동물법률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모피동물</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수생생물</x:t>
+  </x:si>
+  <x:si>
+    <x:t>농장동물</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반종합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>야생동물</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반려동물</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동물실험</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동물오락</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/088/0000791189?sid=102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/001/0013672951?sid=103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/022/0003769811?sid=102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/003/0011599172?sid=104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/008/0004837295?sid=102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://n.news.naver.com/mnews/article/028/0002618646?sid=103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.11.07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.12.09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.10.13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.11.24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.10.09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.12.05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.11.13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.10.06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.09.24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.12.06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.11.14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.12.01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.11.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.11.19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.12.14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.11.08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.12.27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.09.23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023.01.06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.12.31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.09.01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023.01.04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023.01.05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.08.19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.08.01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.08.17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023.01.10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.12.26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.08.26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개 싸움 시켜 도박판 벌인 일당 검거</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동물병원 ‘깜깜이’ 진료비, 내일부터 사라진다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평생 피 뽑히다 죽는 ‘공혈동물’을 아시나요?</x:t>
   </x:si>
   <x:si>
     <x:t>야생동물카페, 이제 불법이에요…그럼 고양이카페는?</x:t>
   </x:si>
   <x:si>
-    <x:t>평생 피 뽑히다 죽는 ‘공혈동물’을 아시나요?</x:t>
+    <x:t>"로드킬에 죽어가는 야생동물, 인간의 책임입니다"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캘리포니아주, 미국 주 최초로 모피 판매 금지한다</x:t>
   </x:si>
   <x:si>
     <x:t>역대 최다 동물실험, 8분의 1만 감사한 당국</x:t>
   </x:si>
   <x:si>
-    <x:t>동물병원 ‘깜깜이’ 진료비, 내일부터 사라진다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"로드킬에 죽어가는 야생동물, 인간의 책임입니다"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캘리포니아주, 미국 주 최초로 모피 판매 금지한다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한국HSI "동물대체시험 활성화법 발의 환영…범정부 지원 필요"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>'신고 없이' 음식 폐기물을 먹이로‥동물 농장 무더기 적발</x:t>
-  </x:si>
-  <x:si>
-    <x:t>‘곰 탈출 반복’ 농장 인명피해…정부·국회 안이함이 낳은 비극</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유엔 생물다양성회의, 전세계 육지·바다의 30% 보호 합의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제임스 카메론 감독, 日 돌고래쇼 논란에 "동의한 적 없는 쇼"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연쇄살인' 전조…美 FBI가 '동물학대범' 관리할 때 韓은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반려동물 아무나 못 판다…불법 판매시 최대 2년 이하 징역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뉴욕에선 '반려동물 쇼핑' 못 한다…펫숍 통한 동물판매 금지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>‘펫숍·동물실험 화장품 퇴출’ 뉴욕, 동물을 위한 잇단 결정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>'동물권도 중요해'…벨기에 지방정부, 개 짖음방지 목줄 등 금지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"한국 수의사, 선진국보다 많아…동물 진료비 부가세 면세해야"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이기영 고양이 괴롭히며 희희낙락…"사이코패스 특징, 동물학대"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>잔인하게 개 도살, 허가 없이 번식·경매…동물 불법행위 적발</x:t>
-  </x:si>
-  <x:si>
-    <x:t>'산 채로 분쇄기' 수평아리 대학살 막을 유전자 편집 기술 개발</x:t>
-  </x:si>
-  <x:si>
-    <x:t>【공장식 축산을 고발한다⑤】 어디로 가는가, 고기의 미래는</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"반려동물 고통 없이 죽을 권리 보장"…수의사법 개정안 발의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"인조모피로 대체"…가치소비 열풍에 MZ세대 '비건 패션' 인기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>“동물실험에 한해 488만마리 고통…‘대체 기술’ 법안 필요해”</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고양이도 반려동물 등록 의무화… 태영호, 동물보호법 개정안 발의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>'연쇄살인' 전조…美 FBI가 '동물학대범' 관리할 때 韓은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://mobile.newsis.com/view.html?ar_id=NISX20221216_0002125717#_enliple</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/article/469/0000686158</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/article/028/0002596607</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://unsplash.com/ko/%EC%82%AC%EC%A7%84/fKC9eWRnlGY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.vegannews.co.kr/news/article.html?no=14076</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.vegannews.co.kr/news/article.html?no=14355</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://entertain.naver.com/read?oid=437&amp;aid=0000326529</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.vegannews.co.kr/news/article.html?no=14295</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://unsplash.com/ko/%EC%82%AC%EC%A7%84/rHCNMH9Vlmw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://unsplash.com/ko/%EC%82%AC%EC%A7%84/Lr_MKzNGhUU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.vegannews.co.kr/news/article.html?no=14325</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://unsplash.com/ko/%EC%82%AC%EC%A7%84/RlOAwXt2fEA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.vegannews.co.kr/news/article.html?no=14330</x:t>
-  </x:si>
-  <x:si>
-    <x:t>야생동물질병관리원 ‘ASF 맷돼지 미끼백신 개발 가능성’</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동림 - 리얼같은 인조 퍼 개발해 ‘세계적 명성’ 얻어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1억 마리 상어의 눈물… 특급호텔 13곳서 샥스핀 판매</x:t>
-  </x:si>
-  <x:si>
-    <x:t>살아있는 악어 대신 ‘악어가죽 가방’을 전시한 동물원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인체조직 모델로 동물실험 대체…대체시험법에 뛰어든 바이오</x:t>
-  </x:si>
-  <x:si>
-    <x:t>'무척추동물' 오징어, 문어는 함부로 해부해도 되나요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>야생동물도 서울살이 힘들다… 올 1700마리가 SOS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"물고기도 동물"···생선 손질에도 국제기준 생긴다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>'물고기도 아프다' 英 동물복지 어업으로 확대 움직임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동물학대범 처벌 수위 ‘들쭉날쭉’… 양형기준 마련 시급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>머스크 '뉴럴링크', 실험 동물 1500마리 떼죽음…美 조사 착수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상어 사체 앞 인증샷 이벤트…‘동물학대 논란’ 이마트, 결국 사과</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"수족관 돌고래 만지면 안돼요"…동물원수족관법 등 환경법안 국회 통과</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://v.daum.net/v/20221119000610432</x:t>
-  </x:si>
-  <x:si>
-    <x:t>망치로 개 때려죽인 동물카페 사장…남은 50마리 구조 못한다, 왜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>증언 못하는 동물 대신 목소리 내다… 산양 56마리와 소송 건 변호사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동물 ‘보호’→‘복지’로 정책 개편…“농장·실험동물은 빠져” 비판도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전국 곰 사육 농가 20개, 총 313마리…모두 "그만하고 싶다"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공장식 축산이 지구에 미치는 영향</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023.01.01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.12.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.12.19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.12.17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.12.07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.12.16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.12.03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.11.30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.12.10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.12.09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.12.01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.12.05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.12.14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.12.06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.10.13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.11.13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.11.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.11.19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.11.08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.11.24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.11.14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.11.07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.10.09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.10.06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.09.24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.08.19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.08.01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.09.01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.08.26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.08.17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.09.23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.12.26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023.01.04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.12.27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023.01.05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.12.31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023.01.10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023.01.06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동물법률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모피동물</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수생생물</x:t>
-  </x:si>
-  <x:si>
-    <x:t>농장동물</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반종합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>야생동물</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반려동물</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동물실험</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동물오락</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://hypebeast.kr/2023/1/california-first-state-ban-animal-fur-sales</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/055/0001021171?sid=104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/025/0003243286?sid=102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/469/0000710601?sid=103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/014/0004930918?sid=102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/277/0005159201?sid=104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/366/0000862283?sid=104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/469/0000712991?sid=103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/003/0011580708?sid=104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/469/0000701869?sid=103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/025/0003250956?sid=101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/028/0002618600?sid=103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/029/0002767296?sid=104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/001/0013571496?sid=102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/028/0002618643?sid=103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>http://www.chemicalnews.co.kr/news/articleView.html?idxno=4865</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/214/0001239465?sid=102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/057/0001694936?sid=102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/057/0001712878?sid=104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/022/0003762035?sid=100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/023/0003734987?sid=102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/028/0002618019?sid=102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/032/0003163802?sid=103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/009/0005005706?sid=103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.newsquest.co.kr/news/articleView.html?idxno=100468</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/009/0005021535?sid=101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/018/0005366389?sid=102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/001/0013655797?sid=104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/018/0005360335?sid=102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/003/0011609784?sid=102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/008/0004838326?sid=102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/421/0006480429?sid=101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/119/0002662669?sid=101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/421/0006542895?sid=103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/003/0011602830?sid=102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/421/0006567199?sid=101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/014/0004951632?sid=103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/022/0003769811?sid=102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/003/0011599172?sid=104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/008/0004837295?sid=102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/088/0000791189?sid=102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/001/0013672951?sid=103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://n.news.naver.com/mnews/article/028/0002618646?sid=103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://pixabay.com/illustrations/virus-microscope-infection-disease-4051654/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://pixabay.com/photos/animal-mouse-experiment-laboratory-1554745/</x:t>
-  </x:si>
-  <x:si>
     <x:t>반갑지 않은 모피 매출 증가</x:t>
   </x:si>
   <x:si>
-    <x:t>개 싸움 시켜 도박판 벌인 일당 검거</x:t>
-  </x:si>
-  <x:si>
-    <x:t>'들쭉날쭉' 동물병원 진료비 5일부터 게시 의무화..펫보험 시장 활성화 기대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>들쭉날쭉' 동물병원 진료비 5일부터 게시 의무화..펫보험 시장 활성화 기대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"동물 가죽 입을 바에 나체로 다닐 것"...알리시아 실버스톤 화보 공개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.etoday.co.kr/news/view/2199972</x:t>
-  </x:si>
-  <x:si>
-    <x:t>‘쇠퇴하는 모피 산업’ 덴마크 밍크 사육 금지령 풀려…모피 농장 내년 재개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"상처입은 사자의 눈빛 안 잊혀…" 동물학대 논란 1도 없는 동물 서커스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스페인, 생태계 보전 위해 토끼·햄스터·거북 등 반려동물 금지 법제화 추진</x:t>
+    <x:t>https://unsplash.com/ko/%EC%82%AC%EC%A7%84/q5rP88HsYN0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://unsplash.com/ko/%EC%82%AC%EC%A7%84/D_pXn7cueOs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://unsplash.com/ko/%EC%82%AC%EC%A7%84/PcKhVNNyEio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://unsplash.com/ko/%EC%82%AC%EC%A7%84/l5truYNKmm8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://unsplash.com/ko/%EC%82%AC%EC%A7%84/3nEpAIe1O-8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://unsplash.com/ko/%EC%82%AC%EC%A7%84/vJ2t_HbtBY4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://unsplash.com/ko/%EC%82%AC%EC%A7%84/PwNeQH3x30A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://unsplash.com/ko/%EC%82%AC%EC%A7%84/0kvvU89Vgf4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://unsplash.com/ko/%EC%82%AC%EC%A7%84/BTSl7lwvEvY</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="24">
+  <x:fonts count="23">
     <x:font>
       <x:name val="굴림"/>
       <x:sz val="11"/>
@@ -1628,8 +1688,8 @@
           <x:sz val="11"/>
           <x:color rgb="ff0563c1"/>
           <x:u/>
+          <hs:underlineType val="1"/>
           <hs:underlineShape val="solid"/>
-          <hs:underlineType val="1"/>
           <hs:underlineColor rgb="ff0563c1"/>
         </x:font>
       </mc:Choice>
@@ -1643,11 +1703,6 @@
       </mc:Fallback>
     </mc:AlternateContent>
     <x:font>
-      <x:name val="돋움"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
       <x:name val="Arial"/>
       <x:sz val="12"/>
       <x:color rgb="ff111111"/>
@@ -1657,12 +1712,28 @@
       <x:sz val="12"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <x:font>
-      <x:name val="굴림"/>
-      <x:sz val="12"/>
-      <x:color rgb="ff000000"/>
-      <x:b val="1"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="굴림"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="굴림"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -1961,63 +2032,24 @@
   <x:borders count="1">
     <x:border>
       <x:left>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:right>
       <x:top>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:bottom>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="15">
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -2027,6 +2059,9 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
@@ -2040,26 +2075,26 @@
     <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <x:xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <x:alignment horizontal="general" vertical="center"/>
@@ -2073,39 +2108,36 @@
     <x:xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <x:xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="2">
-    <x:cellStyle xfId="0" builtinId="0"/>
+    <x:cellStyle name="표준" xfId="0" builtinId="0"/>
     <x:cellStyle name="하이퍼링크" xfId="1"/>
   </x:cellStyles>
-  <x:dxfs count="32">
+  <x:dxfs count="14">
     <x:dxf>
       <x:fill>
         <x:patternFill patternType="solid">
@@ -2135,7 +2167,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2156,7 +2187,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2177,7 +2207,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2208,7 +2237,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2239,7 +2267,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2293,7 +2320,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2328,7 +2354,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2363,7 +2388,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2408,7 +2432,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2452,7 +2475,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2520,457 +2542,6 @@
         </x:dxf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:dxf hs:applyExtension="1">
-          <x:font hs:extension="1">
-            <x:color rgb="ff000000"/>
-            <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
-            <hs:size val="0"/>
-            <hs:ratio val="0"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:font>
-          <x:fill>
-            <x:patternFill patternType="solid">
-              <x:fgColor rgb="ffddebf7"/>
-              <x:bgColor rgb="ffddebf7"/>
-            </x:patternFill>
-          </x:fill>
-          <x:border>
-            <x:bottom style="thin">
-              <x:color rgb="ff9cc3e6"/>
-            </x:bottom>
-          </x:border>
-        </x:dxf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:dxf>
-          <x:font>
-            <x:color rgb="ff000000"/>
-            <x:b val="1"/>
-          </x:font>
-          <x:fill>
-            <x:patternFill patternType="solid">
-              <x:fgColor rgb="ffddebf7"/>
-              <x:bgColor rgb="ffddebf7"/>
-            </x:patternFill>
-          </x:fill>
-          <x:border>
-            <x:bottom style="thin">
-              <x:color rgb="ff9cc3e6"/>
-            </x:bottom>
-          </x:border>
-        </x:dxf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:dxf hs:applyExtension="1">
-          <x:font hs:extension="1">
-            <x:color rgb="ff000000"/>
-            <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
-            <hs:size val="0"/>
-            <hs:ratio val="0"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:font>
-          <x:fill>
-            <x:patternFill patternType="solid">
-              <x:fgColor rgb="ffddebf7"/>
-              <x:bgColor rgb="ffddebf7"/>
-            </x:patternFill>
-          </x:fill>
-          <x:border>
-            <x:top style="thin">
-              <x:color rgb="ff9cc3e6"/>
-            </x:top>
-          </x:border>
-        </x:dxf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:dxf>
-          <x:font>
-            <x:color rgb="ff000000"/>
-            <x:b val="1"/>
-          </x:font>
-          <x:fill>
-            <x:patternFill patternType="solid">
-              <x:fgColor rgb="ffddebf7"/>
-              <x:bgColor rgb="ffddebf7"/>
-            </x:patternFill>
-          </x:fill>
-          <x:border>
-            <x:top style="thin">
-              <x:color rgb="ff9cc3e6"/>
-            </x:top>
-          </x:border>
-        </x:dxf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:dxf>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor rgb="ffd9d9d9"/>
-          <x:bgColor rgb="ffd9d9d9"/>
-        </x:patternFill>
-      </x:fill>
-    </x:dxf>
-    <x:dxf>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor rgb="ffd9d9d9"/>
-          <x:bgColor rgb="ffd9d9d9"/>
-        </x:patternFill>
-      </x:fill>
-      <x:border>
-        <x:left style="thin">
-          <x:color rgb="ffbfbfbf"/>
-        </x:left>
-        <x:right style="thin">
-          <x:color rgb="ffbfbfbf"/>
-        </x:right>
-      </x:border>
-    </x:dxf>
-    <x:dxf>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor rgb="ffd9d9d9"/>
-          <x:bgColor rgb="ffd9d9d9"/>
-        </x:patternFill>
-      </x:fill>
-    </x:dxf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:dxf hs:applyExtension="1">
-          <x:font hs:extension="1">
-            <x:color rgb="ff000000"/>
-            <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
-            <hs:size val="0"/>
-            <hs:ratio val="0"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:font>
-          <x:border>
-            <x:top style="thin">
-              <x:color rgb="ff5b9bd5"/>
-            </x:top>
-            <x:bottom style="thin">
-              <x:color rgb="ff5b9bd5"/>
-            </x:bottom>
-          </x:border>
-        </x:dxf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:dxf>
-          <x:font>
-            <x:color rgb="ff000000"/>
-            <x:b val="1"/>
-          </x:font>
-          <x:border>
-            <x:top style="thin">
-              <x:color rgb="ff5b9bd5"/>
-            </x:top>
-            <x:bottom style="thin">
-              <x:color rgb="ff5b9bd5"/>
-            </x:bottom>
-          </x:border>
-        </x:dxf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:dxf hs:applyExtension="1">
-          <x:font hs:extension="1">
-            <x:color rgb="ff000000"/>
-            <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
-            <hs:size val="0"/>
-            <hs:ratio val="0"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:font>
-        </x:dxf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:dxf>
-          <x:font>
-            <x:color rgb="ff000000"/>
-            <x:b val="1"/>
-          </x:font>
-        </x:dxf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:dxf hs:applyExtension="1">
-          <x:font hs:extension="1">
-            <x:color rgb="ff000000"/>
-            <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
-            <hs:size val="0"/>
-            <hs:ratio val="0"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:font>
-          <x:border>
-            <x:bottom style="thin">
-              <x:color rgb="ff9cc3e6"/>
-            </x:bottom>
-          </x:border>
-        </x:dxf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:dxf>
-          <x:font>
-            <x:color rgb="ff000000"/>
-            <x:b val="1"/>
-          </x:font>
-          <x:border>
-            <x:bottom style="thin">
-              <x:color rgb="ff9cc3e6"/>
-            </x:bottom>
-          </x:border>
-        </x:dxf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:dxf hs:applyExtension="1">
-          <x:font hs:extension="1">
-            <x:color rgb="ff000000"/>
-            <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
-            <hs:size val="0"/>
-            <hs:ratio val="0"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:font>
-        </x:dxf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:dxf>
-          <x:font>
-            <x:color rgb="ff000000"/>
-            <x:b val="1"/>
-          </x:font>
-        </x:dxf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:dxf>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor rgb="ffddebf7"/>
-          <x:bgColor rgb="ffddebf7"/>
-        </x:patternFill>
-      </x:fill>
-      <x:border>
-        <x:bottom style="thin">
-          <x:color rgb="ff9cc3e6"/>
-        </x:bottom>
-      </x:border>
-    </x:dxf>
-    <x:dxf>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor rgb="ffddebf7"/>
-          <x:bgColor rgb="ffddebf7"/>
-        </x:patternFill>
-      </x:fill>
-      <x:border>
-        <x:bottom style="thin">
-          <x:color rgb="ff9cc3e6"/>
-        </x:bottom>
-      </x:border>
-    </x:dxf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:dxf hs:applyExtension="1">
-          <x:font hs:extension="1">
-            <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
-            <hs:size val="0"/>
-            <hs:ratio val="0"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:font>
-          <x:border>
-            <x:left style="thin">
-              <x:color rgb="ff9cc3e6"/>
-            </x:left>
-            <x:right style="thin">
-              <x:color rgb="ff9cc3e6"/>
-            </x:right>
-            <x:top style="thin">
-              <x:color rgb="ff9cc3e6"/>
-            </x:top>
-            <x:bottom style="thin">
-              <x:color rgb="ff9cc3e6"/>
-            </x:bottom>
-            <x:horizontal style="thin">
-              <x:color rgb="ff9cc3e6"/>
-            </x:horizontal>
-          </x:border>
-        </x:dxf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:dxf>
-          <x:font>
-            <x:color rgb="ff000000"/>
-          </x:font>
-          <x:border>
-            <x:left style="thin">
-              <x:color rgb="ff9cc3e6"/>
-            </x:left>
-            <x:right style="thin">
-              <x:color rgb="ff9cc3e6"/>
-            </x:right>
-            <x:top style="thin">
-              <x:color rgb="ff9cc3e6"/>
-            </x:top>
-            <x:bottom style="thin">
-              <x:color rgb="ff9cc3e6"/>
-            </x:bottom>
-            <x:horizontal style="thin">
-              <x:color rgb="ff9cc3e6"/>
-            </x:horizontal>
-          </x:border>
-        </x:dxf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:dxf hs:applyExtension="1">
-          <x:font hs:extension="1">
-            <x:color rgb="ffffffff"/>
-            <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
-            <hs:size val="0"/>
-            <hs:ratio val="0"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:font>
-          <x:fill>
-            <x:patternFill patternType="solid">
-              <x:fgColor rgb="ff5b9bd5"/>
-              <x:bgColor rgb="ff5b9bd5"/>
-            </x:patternFill>
-          </x:fill>
-        </x:dxf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:dxf>
-          <x:font>
-            <x:color rgb="ffffffff"/>
-            <x:b val="1"/>
-          </x:font>
-          <x:fill>
-            <x:patternFill patternType="solid">
-              <x:fgColor rgb="ff5b9bd5"/>
-              <x:bgColor rgb="ff5b9bd5"/>
-            </x:patternFill>
-          </x:fill>
-        </x:dxf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:dxf hs:applyExtension="1">
-          <x:font hs:extension="1">
-            <x:color rgb="ff000000"/>
-            <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
-            <hs:size val="0"/>
-            <hs:ratio val="0"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:font>
-          <x:border>
-            <x:top style="double">
-              <x:color rgb="ff5b9bd5"/>
-            </x:top>
-          </x:border>
-        </x:dxf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:dxf>
-          <x:font>
-            <x:color rgb="ff000000"/>
-            <x:b val="1"/>
-          </x:font>
-          <x:border>
-            <x:top style="double">
-              <x:color rgb="ff5b9bd5"/>
-            </x:top>
-          </x:border>
-        </x:dxf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:dxf hs:applyExtension="1">
-          <x:font hs:extension="1">
-            <x:color rgb="ff000000"/>
-            <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
-            <hs:size val="0"/>
-            <hs:ratio val="0"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:font>
-        </x:dxf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:dxf>
-          <x:font>
-            <x:color rgb="ff000000"/>
-            <x:b val="1"/>
-          </x:font>
-        </x:dxf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:dxf hs:applyExtension="1">
-          <x:font hs:extension="1">
-            <x:color rgb="ff000000"/>
-            <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
-            <hs:size val="0"/>
-            <hs:ratio val="0"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:font>
-        </x:dxf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:dxf>
-          <x:font>
-            <x:color rgb="ff000000"/>
-            <x:b val="1"/>
-          </x:font>
-        </x:dxf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:dxf>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor rgb="ffddebf7"/>
-          <x:bgColor rgb="ffddebf7"/>
-        </x:patternFill>
-      </x:fill>
-    </x:dxf>
-    <x:dxf>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor rgb="ffddebf7"/>
-          <x:bgColor rgb="ffddebf7"/>
-        </x:patternFill>
-      </x:fill>
-    </x:dxf>
   </x:dxfs>
   <x:tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <x:tableStyle name="Normal Style 1 - Accent 1" pivot="0" table="1" count="7">
@@ -2996,7 +2567,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" name="Office 테마">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3254,7 +2825,7 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:AG42"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <x:sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:S9"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3265,982 +2836,982 @@
   <x:sheetData>
     <x:row r="1" spans="1:17" customHeight="1">
       <x:c r="A1" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E1" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G1" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="I1" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K1" s="3" t="s">
-        <x:v>108</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="M1" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="O1" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="Q1" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:18" customHeight="1">
       <x:c r="A2" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>154</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D2" s="3" t="s">
-        <x:v>148</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E2" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F2" s="3" t="s">
-        <x:v>147</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G2" s="4" t="s">
-        <x:v>164</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H2" s="3" t="s">
-        <x:v>133</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I2" s="4" t="s">
-        <x:v>61</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="J2" s="3" t="s">
-        <x:v>146</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K2" s="4" t="s">
-        <x:v>61</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="L2" s="3" t="s">
-        <x:v>146</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="M2" s="4" t="s">
-        <x:v>67</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="N2" s="3" t="s">
-        <x:v>41</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O2" s="4" t="s">
-        <x:v>162</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="P2" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q2" s="4" t="s">
-        <x:v>162</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="R2" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:18" customHeight="1">
       <x:c r="A3" s="4" t="s">
-        <x:v>31</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>156</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C3" s="4" t="s">
-        <x:v>24</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D3" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E3" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F3" s="3" t="s">
-        <x:v>157</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="G3" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="H3" s="3" t="s">
-        <x:v>115</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I3" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J3" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K3" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="L3" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="M3" s="4" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="N3" s="3" t="s">
-        <x:v>155</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O3" s="4" t="s">
-        <x:v>35</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="P3" s="3" t="s">
-        <x:v>145</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="Q3" s="4" t="s">
-        <x:v>13</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="R3" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:18" customHeight="1">
       <x:c r="A4" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B4" s="7" t="s">
-        <x:v>144</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
-        <x:v>53</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E4" s="4" t="s">
-        <x:v>19</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F4" s="3" t="s">
-        <x:v>153</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G4" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="H4" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="I4" s="4" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="J4" s="3" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="K4" s="4" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="L4" s="3" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="I4" s="4" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J4" s="3" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="K4" s="4" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="L4" s="3" t="s">
-        <x:v>153</x:v>
-      </x:c>
       <x:c r="M4" s="4" t="s">
-        <x:v>29</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="N4" s="7" t="s">
-        <x:v>43</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O4" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="P4" s="3" t="s">
-        <x:v>150</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q4" s="4" t="s">
-        <x:v>61</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="R4" s="3" t="s">
-        <x:v>146</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:18" customHeight="1">
       <x:c r="A5" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>142</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E5" s="4" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H5" s="7" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I5" s="4" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="J5" s="3" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="E5" s="4" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="H5" s="7" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="I5" s="4" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="J5" s="3" t="s">
-        <x:v>117</x:v>
-      </x:c>
       <x:c r="K5" s="4" t="s">
-        <x:v>54</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="L5" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="M5" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N5" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="O5" s="4" t="s">
-        <x:v>13</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="P5" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="Q5" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="R5" s="3" t="s">
-        <x:v>157</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:18" customHeight="1">
       <x:c r="A6" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s">
-        <x:v>59</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D6" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E6" s="4" t="s">
-        <x:v>55</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F6" s="7" t="s">
-        <x:v>135</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G6" s="5" t="s">
-        <x:v>166</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H6" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I6" s="4" t="s">
-        <x:v>161</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="J6" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="K6" s="4" t="s">
-        <x:v>57</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="L6" s="3" t="s">
-        <x:v>120</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="M6" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="N6" s="3" t="s">
-        <x:v>131</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O6" s="4" t="s">
-        <x:v>19</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="P6" s="3" t="s">
-        <x:v>153</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="Q6" s="4" t="s">
-        <x:v>31</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="R6" s="3" t="s">
-        <x:v>156</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:18" customHeight="1">
       <x:c r="A7" s="4" t="s">
-        <x:v>168</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B7" s="7" t="s">
-        <x:v>121</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C7" s="4" t="s">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E7" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="F7" s="3" t="s">
-        <x:v>118</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>160</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>130</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I7" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="J7" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="K7" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="L7" s="3" t="s">
-        <x:v>132</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="M7" s="4" t="s">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="N7" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="O7" s="4" t="s">
-        <x:v>58</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="P7" s="3" t="s">
-        <x:v>152</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="Q7" s="4" t="s">
-        <x:v>24</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="R7" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:18" customHeight="1">
       <x:c r="A8" s="4" t="s">
-        <x:v>34</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>134</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C8" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
-        <x:v>141</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E8" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F8" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G8" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H8" s="7" t="s">
-        <x:v>9</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I8" s="4" t="s">
-        <x:v>167</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="J8" s="3" t="s">
-        <x:v>140</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="K8" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="L8" s="3" t="s">
-        <x:v>37</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M8" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="N8" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="O8" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="P8" s="3" t="s">
-        <x:v>144</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="Q8" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="R8" s="3" t="s">
-        <x:v>142</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:18" customHeight="1">
       <x:c r="A9" s="4" t="s">
-        <x:v>22</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>165</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C9" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
-        <x:v>143</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E9" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F9" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G9" s="6" t="s">
-        <x:v>50</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H9" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I9" s="4" t="s">
-        <x:v>60</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="J9" s="3" t="s">
-        <x:v>137</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="K9" s="4" t="s">
-        <x:v>60</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="L9" s="3" t="s">
-        <x:v>137</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="M9" s="4" t="s">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="N9" s="3" t="s">
-        <x:v>122</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="O9" s="4" t="s">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="P9" s="3" t="s">
-        <x:v>146</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q9" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="R9" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:33" customHeight="1">
       <x:c r="A11" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I11" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="Q11" s="4" t="s">
-        <x:v>61</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="Y11" s="4" t="s">
-        <x:v>67</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="AG11" s="4"/>
     </x:row>
     <x:row r="12" spans="1:25" customHeight="1">
       <x:c r="A12" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="I12" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="J12" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="Q12" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="R12" s="3" t="s">
-        <x:v>108</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="S12" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="Y12" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:33" customHeight="1">
       <x:c r="A13" s="4" t="s">
-        <x:v>31</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I13" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="Q13" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="Y13" s="4" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="AG13" s="4"/>
     </x:row>
     <x:row r="14" spans="1:25" customHeight="1">
       <x:c r="A14" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="I14" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="J14" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K14" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="Q14" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="R14" s="3" t="s">
-        <x:v>108</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="Y14" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:25" customHeight="1">
       <x:c r="A15" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I15" s="4" t="s">
-        <x:v>19</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="Q15" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="Y15" s="4" t="s">
-        <x:v>29</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:25" customHeight="1">
       <x:c r="A16" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B16" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="I16" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="J16" s="3" t="s">
-        <x:v>108</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="K16" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="Q16" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="R16" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Y16" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:25" customHeight="1">
       <x:c r="A17" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I17" s="4" t="s">
-        <x:v>49</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="Q17" s="4" t="s">
-        <x:v>161</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="Y17" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:25" customHeight="1">
       <x:c r="A18" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="I18" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="Q18" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Y18" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:25" customHeight="1">
       <x:c r="A19" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I19" s="4" t="s">
-        <x:v>55</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="Q19" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="Y19" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:26" customHeight="1">
       <x:c r="A20" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B20" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="I20" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="J20" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="Q20" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Y20" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="Z20" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:25" customHeight="1">
       <x:c r="A21" s="4" t="s">
-        <x:v>168</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I21" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="Q21" s="4" t="s">
-        <x:v>167</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="Y21" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:25" customHeight="1">
       <x:c r="A22" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="I22" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="J22" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="Q22" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Y22" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:25" customHeight="1">
       <x:c r="A23" s="4" t="s">
-        <x:v>34</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I23" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q23" s="4" t="s">
-        <x:v>60</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="Y23" s="4" t="s">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:26" customHeight="1">
       <x:c r="A24" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="I24" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="J24" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="Q24" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="R24" s="3" t="s">
-        <x:v>108</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="Y24" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="Z24" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:25" customHeight="1">
       <x:c r="A25" s="4" t="s">
-        <x:v>22</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I25" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="Q25" s="4" t="s">
-        <x:v>54</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="Y25" s="4" t="s">
-        <x:v>162</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:26" customHeight="1">
       <x:c r="A26" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B26" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="I26" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="Q26" s="3" t="s">
-        <x:v>108</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="Y26" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="Z26" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:25" customHeight="1">
       <x:c r="A27" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="I27" s="4" t="s">
-        <x:v>164</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="Q27" s="4" t="s">
-        <x:v>57</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="Y27" s="4" t="s">
-        <x:v>35</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:25" customHeight="1">
       <x:c r="A28" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="I28" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="J28" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="Q28" s="3" t="s">
-        <x:v>108</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="Y28" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:25" customHeight="1">
       <x:c r="A29" s="4" t="s">
-        <x:v>24</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="I29" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="Q29" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="Y29" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:25" customHeight="1">
       <x:c r="A30" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B30" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="I30" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="J30" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="Q30" s="3" t="s">
-        <x:v>108</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="Y30" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:25" customHeight="1">
       <x:c r="A31" s="4" t="s">
-        <x:v>53</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="I31" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="Q31" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="Y31" s="4" t="s">
-        <x:v>13</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:26" customHeight="1">
       <x:c r="A32" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B32" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="I32" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="J32" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="Q32" s="3" t="s">
-        <x:v>108</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="Y32" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="Z32" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:25" customHeight="1">
       <x:c r="A33" s="4" t="s">
-        <x:v>33</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I33" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="Q33" s="4" t="s">
-        <x:v>60</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="Y33" s="4" t="s">
-        <x:v>58</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:25" customHeight="1">
       <x:c r="A34" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B34" s="3" t="s">
-        <x:v>108</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="I34" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="J34" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="Q34" s="3" t="s">
-        <x:v>108</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="Y34" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:25" customHeight="1">
       <x:c r="A35" s="4" t="s">
-        <x:v>59</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I35" s="5" t="s">
-        <x:v>166</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="Y35" s="4"/>
     </x:row>
     <x:row r="36" spans="1:9" customHeight="1">
       <x:c r="A36" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="I36" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9" customHeight="1">
       <x:c r="A37" s="4" t="s">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I37" s="3" t="s">
-        <x:v>160</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9" customHeight="1">
       <x:c r="A38" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B38" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="I38" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9" customHeight="1">
       <x:c r="A39" s="8" t="s">
-        <x:v>11</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="I39" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9" customHeight="1">
       <x:c r="A40" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B40" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C40" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="I40" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:25" customHeight="1">
       <x:c r="A41" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I41" s="6" t="s">
-        <x:v>50</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="Y41" s="4"/>
     </x:row>
     <x:row r="42" spans="1:10" customHeight="1">
       <x:c r="A42" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B42" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="I42" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="J42" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4253,7 +3824,7 @@
     <x:hyperlink ref="N4:N4" r:id="rId6" tooltip="https://www.vegannews.co.kr/news/article.html?no=14295"/>
     <x:hyperlink ref="D6:D6" r:id="rId7" tooltip="https://n.news.naver.com/mnews/article/003/0011580708?sid=104"/>
   </x:hyperlinks>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -4263,11 +3834,11 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:R122"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <x:selection activeCell="K37" activeCellId="0" sqref="K37:K37"/>
+    <x:sheetView tabSelected="1" topLeftCell="A95" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="K109" activeCellId="0" sqref="K109:K109"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35"/>
+  <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="13.550000000000001"/>
   <x:cols>
     <x:col min="1" max="1" width="9" style="14"/>
     <x:col min="11" max="11" width="9" style="11"/>
@@ -4275,1481 +3846,1535 @@
   <x:sheetData>
     <x:row r="1" spans="1:17" s="3" customFormat="1" ht="18" customHeight="1">
       <x:c r="A1" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E1" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G1" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="I1" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K1" s="3" t="s">
-        <x:v>108</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="M1" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="O1" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="Q1" s="3" t="s">
-        <x:v>106</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:18" ht="15.300000000000001">
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:18" ht="17.800000000000001">
       <x:c r="A2" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E2" s="4" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="F2" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G2" s="12" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="H2" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I2" s="4" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="J2" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="K2" s="4" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="L2" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="M2" s="4" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="N2" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O2" s="4" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="P2" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q2" s="12" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="R2" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:18" ht="14.199999999999999">
+      <x:c r="A3" s="4" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C3" s="4" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D3" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E3" s="4" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="G3" s="4" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="H3" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I3" s="4" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="J3" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="K3" s="4" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="L3" s="1" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="M3" s="4" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="N3" s="1" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="O3" s="4" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="P3" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q3" s="22" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="R3" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:18" ht="14.199999999999999">
+      <x:c r="A4" s="4" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C4" s="4" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E4" s="4" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F4" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G4" s="5" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H4" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I4" s="4" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="J4" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="K4" s="4" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="L4" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="M4" s="4" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="N4" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O4" s="22" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="P4" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q4" s="4" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="R4" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:18" ht="14.199999999999999">
+      <x:c r="A5" s="4" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C5" s="4" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E5" s="4" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="F5" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="G5" s="9" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H5" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I5" s="4" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="J5" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="K5" s="4" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="L5" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="M5" s="4" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="N5" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="O5" s="4" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="P5" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="Q5" s="4" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="R5" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:18" ht="14.199999999999999">
+      <x:c r="A6" s="4" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C6" s="4" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="E6" s="4" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="F6" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G6" s="9" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="H6" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I6" s="4" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="J6" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="K6" s="4" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="L6" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="M6" s="4" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="N6" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="O6" s="4" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="P6" s="1" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="Q6" s="4" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="R6" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:18" ht="14.199999999999999">
+      <x:c r="A7" s="4" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C7" s="4" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E7" s="4" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="F7" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G7" s="5" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="H7" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="D2" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="E2" s="4" t="s">
+      <x:c r="I7" s="4" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="J7" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K7" s="4" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="L7" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="M7" s="4" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="N7" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="O7" s="4" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="P7" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="Q7" s="4" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="R7" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:18" ht="14.199999999999999">
+      <x:c r="A8" s="4" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C8" s="4" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E8" s="4" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="F8" s="1" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="G8" s="10" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="H8" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="I8" s="4" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="J8" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="K8" s="4" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="L8" s="1" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="F2" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G2" s="12" t="s">
+      <x:c r="M8" s="4" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="N8" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="O8" s="4" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="P8" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="H2" s="1" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="I2" s="4" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J2" s="1" t="s">
+      <x:c r="Q8" s="4" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R8" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:18" ht="14.199999999999999">
+      <x:c r="A9" s="9" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C9" s="10" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E9" s="4" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="F9" s="1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G9" s="4" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="H9" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="I9" s="4" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="J9" s="1" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="K2" s="4" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="L2" s="1" t="s">
+      <x:c r="K9" s="4" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="L9" s="1" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="M2" s="4" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="N2" s="1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="O2" s="4" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="P2" s="1" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="Q2" s="12" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="R2" s="1" t="s">
-        <x:v>115</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:18" ht="14.449999999999999">
-      <x:c r="A3" s="4" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B3" s="1" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="C3" s="4" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D3" s="1" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E3" s="4" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F3" s="1" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="G3" s="4" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="H3" s="1" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="I3" s="4" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J3" s="1" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="K3" s="4" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="L3" s="1" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="M3" s="4" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="N3" s="1" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="O3" s="4" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="P3" s="1" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="Q3" s="22" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="R3" s="1" t="s">
-        <x:v>151</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:18" ht="14.449999999999999">
-      <x:c r="A4" s="4" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C4" s="4" t="s">
+      <x:c r="M9" s="4" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="N9" s="1" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D4" s="1" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="E4" s="4" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="F4" s="1" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="G4" s="5" t="s">
-        <x:v>166</x:v>
-      </x:c>
-      <x:c r="H4" s="1" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="I4" s="4" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="J4" s="1" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="K4" s="4" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="L4" s="1" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="M4" s="4" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="N4" s="1" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="O4" s="22" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="P4" s="1" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="Q4" s="4" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="R4" s="1" t="s">
-        <x:v>125</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:18" ht="14.449999999999999">
-      <x:c r="A5" s="4" t="s">
-        <x:v>168</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="C5" s="4" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D5" s="1" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="E5" s="4" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F5" s="1" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="G5" s="9" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="H5" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="I5" s="4" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="J5" s="1" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="K5" s="4" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="L5" s="1" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="M5" s="4" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="N5" s="1" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="O5" s="4" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="P5" s="1" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="Q5" s="4" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="R5" s="1" t="s">
-        <x:v>144</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:18" ht="14.449999999999999">
-      <x:c r="A6" s="4" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B6" s="1" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="C6" s="4" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D6" s="1" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="E6" s="4" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F6" s="1" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="G6" s="9" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H6" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="I6" s="4" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="J6" s="1" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="K6" s="4" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="L6" s="1" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="M6" s="4" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="N6" s="1" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="O6" s="4" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="P6" s="1" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="Q6" s="4" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="R6" s="1" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:18" ht="14.449999999999999">
-      <x:c r="A7" s="4" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="C7" s="4" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D7" s="1" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E7" s="4" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F7" s="1" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="G7" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="H7" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="I7" s="4" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="J7" s="1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="K7" s="4" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="L7" s="1" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="M7" s="4" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="N7" s="1" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="O7" s="4" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="P7" s="1" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="Q7" s="4" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="R7" s="1" t="s">
-        <x:v>142</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:18" ht="14.449999999999999">
-      <x:c r="A8" s="4" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="B8" s="1" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="C8" s="4" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D8" s="1" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="E8" s="4" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F8" s="1" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="G8" s="10" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="H8" s="1" t="s">
+      <x:c r="O9" s="4" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="P9" s="1" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="Q9" s="4" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="R9" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:2" ht="14.199999999999999">
+      <x:c r="A11" s="13" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="B11" s="22" t="s">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="2:2" ht="14.199999999999999">
+      <x:c r="B12" s="3" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="I8" s="4" t="s">
+    </x:row>
+    <x:row r="13" spans="1:2" ht="14.199999999999999">
+      <x:c r="A13" s="13" t="s">
         <x:v>167</x:v>
       </x:c>
-      <x:c r="J8" s="1" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="K8" s="4" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="L8" s="1" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="M8" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="N8" s="1" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="O8" s="4" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="P8" s="1" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="Q8" s="4" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="R8" s="1" t="s">
-        <x:v>116</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:18" ht="14.449999999999999">
-      <x:c r="A9" s="9" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B9" s="1" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="C9" s="10" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D9" s="1" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="E9" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F9" s="1" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="G9" s="4" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H9" s="1" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="I9" s="4" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="J9" s="1" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="K9" s="4" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="L9" s="1" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="M9" s="4" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="N9" s="1" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="O9" s="4" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="P9" s="1" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="Q9" s="4" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="R9" s="1" t="s">
-        <x:v>165</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:2" ht="14.449999999999999">
-      <x:c r="A11" s="13" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="B11" s="22" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="2:2" ht="14.449999999999999">
-      <x:c r="B12" s="3" t="s">
-        <x:v>110</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:2" ht="14.449999999999999">
-      <x:c r="A13" s="13" t="s">
-        <x:v>104</x:v>
-      </x:c>
       <x:c r="B13" s="4" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="2:2" ht="14.449999999999999">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="2:2" ht="14.199999999999999">
       <x:c r="B14" s="3" t="s">
-        <x:v>110</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:5" ht="15.300000000000001">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:5" ht="17.800000000000001">
       <x:c r="A15" s="13" t="s">
-        <x:v>105</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B15" s="12" t="s">
-        <x:v>15</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C15" s="3"/>
       <x:c r="D15" s="3"/>
       <x:c r="E15" s="3"/>
     </x:row>
-    <x:row r="16" spans="2:5" ht="14.449999999999999">
+    <x:row r="16" spans="2:5" ht="14.199999999999999">
       <x:c r="B16" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D16" s="3"/>
       <x:c r="E16" s="3"/>
     </x:row>
-    <x:row r="17" spans="1:3" ht="14.449999999999999">
+    <x:row r="17" spans="1:3" ht="14.199999999999999">
       <x:c r="A17" s="15" t="s">
-        <x:v>102</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B17" s="4" t="s">
-        <x:v>67</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C17" s="3"/>
     </x:row>
-    <x:row r="18" spans="2:2" ht="14.449999999999999">
+    <x:row r="18" spans="2:2" ht="14.199999999999999">
       <x:c r="B18" s="3" t="s">
-        <x:v>109</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:2" ht="14.449999999999999">
+        <x:v>129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:2" ht="14.199999999999999">
       <x:c r="A19" s="13" t="s">
-        <x:v>102</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B19" s="22" t="s">
-        <x:v>163</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="2:3" ht="14.449999999999999">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="2:3" ht="14.199999999999999">
       <x:c r="B20" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s">
-        <x:v>106</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:2" ht="14.449999999999999">
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:2" ht="14.199999999999999">
       <x:c r="A21" s="13" t="s">
-        <x:v>100</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B21" s="4" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="2:3" ht="14.449999999999999">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="2:3" ht="14.199999999999999">
       <x:c r="B22" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s">
-        <x:v>106</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:2" ht="14.449999999999999">
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:2" ht="14.199999999999999">
       <x:c r="A23" s="13" t="s">
-        <x:v>68</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B23" s="4" t="s">
-        <x:v>58</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="2:2" ht="14.449999999999999">
+        <x:v>123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="2:2" ht="14.199999999999999">
       <x:c r="B24" s="3" t="s">
-        <x:v>110</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:5" ht="14.449999999999999">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:5" ht="14.199999999999999">
       <x:c r="A25" s="13" t="s">
-        <x:v>103</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B25" s="4" t="s">
-        <x:v>164</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C25" s="3"/>
       <x:c r="D25" s="3"/>
       <x:c r="E25" s="3"/>
     </x:row>
-    <x:row r="26" spans="2:5" ht="14.449999999999999">
+    <x:row r="26" spans="2:5" ht="14.199999999999999">
       <x:c r="B26" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D26" s="3"/>
       <x:c r="E26" s="3"/>
     </x:row>
-    <x:row r="27" spans="1:2" ht="14.449999999999999">
+    <x:row r="27" spans="1:2" ht="14.199999999999999">
       <x:c r="A27" s="13" t="s">
-        <x:v>103</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B27" s="4" t="s">
-        <x:v>66</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="2:2" ht="14.449999999999999">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="2:2" ht="14.199999999999999">
       <x:c r="B28" s="3" t="s">
-        <x:v>109</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:11" ht="14.449999999999999">
+        <x:v>129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:11" ht="14.199999999999999">
       <x:c r="A29" s="13" t="s">
-        <x:v>101</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B29" s="24" t="s">
-        <x:v>16</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C29" s="3"/>
       <x:c r="D29" s="3"/>
       <x:c r="E29" s="3"/>
       <x:c r="F29" s="3"/>
       <x:c r="K29" s="11" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="2:6" ht="14.449999999999999">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="2:6" ht="14.199999999999999">
       <x:c r="B30" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C30" s="3"/>
       <x:c r="D30" s="3"/>
       <x:c r="E30" s="3"/>
       <x:c r="F30" s="3"/>
     </x:row>
-    <x:row r="31" spans="1:5" ht="14.449999999999999">
+    <x:row r="31" spans="1:5" ht="14.199999999999999">
       <x:c r="A31" s="15" t="s">
-        <x:v>101</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B31" s="5" t="s">
-        <x:v>166</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C31" s="3"/>
       <x:c r="D31" s="3"/>
       <x:c r="E31" s="3"/>
     </x:row>
-    <x:row r="32" spans="2:5" ht="14.449999999999999">
+    <x:row r="32" spans="2:5" ht="14.199999999999999">
       <x:c r="B32" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C32" s="3"/>
       <x:c r="D32" s="3"/>
       <x:c r="E32" s="3"/>
     </x:row>
-    <x:row r="33" spans="1:6" ht="14.449999999999999">
+    <x:row r="33" spans="1:11" ht="14.199999999999999">
       <x:c r="A33" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B33" s="23" t="s">
-        <x:v>28</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C33" s="3"/>
       <x:c r="D33" s="3"/>
       <x:c r="E33" s="3"/>
       <x:c r="F33" s="3"/>
-    </x:row>
-    <x:row r="34" spans="2:6" ht="14.449999999999999">
+      <x:c r="K33" s="11" t="s">
+        <x:v>185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="2:6" ht="14.199999999999999">
       <x:c r="B34" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C34" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D34" s="3"/>
       <x:c r="E34" s="3"/>
       <x:c r="F34" s="3"/>
     </x:row>
-    <x:row r="35" spans="1:11" ht="14.449999999999999">
+    <x:row r="35" spans="1:11" ht="14.199999999999999">
       <x:c r="A35" s="15" t="s">
-        <x:v>99</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B35" s="24" t="s">
-        <x:v>24</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C35" s="3"/>
       <x:c r="D35" s="3"/>
       <x:c r="E35" s="3"/>
       <x:c r="F35" s="3"/>
       <x:c r="K35" s="11" t="s">
-        <x:v>39</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="2:6" ht="14.449999999999999">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="2:6" ht="14.199999999999999">
       <x:c r="B36" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C36" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D36" s="3"/>
       <x:c r="E36" s="3"/>
       <x:c r="F36" s="3"/>
     </x:row>
-    <x:row r="37" spans="1:11" ht="14.449999999999999">
+    <x:row r="37" spans="1:11" ht="14.199999999999999">
       <x:c r="A37" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B37" s="25" t="s">
-        <x:v>49</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C37" s="3"/>
       <x:c r="D37" s="3"/>
       <x:c r="E37" s="3"/>
       <x:c r="K37" s="11" t="s">
-        <x:v>158</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="2:5" ht="14.449999999999999">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="2:5" ht="14.199999999999999">
       <x:c r="B38" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C38" s="3"/>
       <x:c r="D38" s="3"/>
       <x:c r="E38" s="3"/>
     </x:row>
-    <x:row r="39" spans="1:3" ht="14.449999999999999">
+    <x:row r="39" spans="1:3" ht="14.199999999999999">
       <x:c r="A39" s="17" t="s">
-        <x:v>99</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B39" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C39" s="3"/>
     </x:row>
-    <x:row r="40" spans="2:3" ht="14.449999999999999">
+    <x:row r="40" spans="2:3" ht="14.199999999999999">
       <x:c r="B40" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C40" s="3" t="s">
-        <x:v>108</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:6" ht="14.449999999999999">
+        <x:v>128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:11" ht="14.199999999999999">
       <x:c r="A41" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B41" s="23" t="s">
-        <x:v>25</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C41" s="3"/>
       <x:c r="D41" s="3"/>
       <x:c r="E41" s="3"/>
       <x:c r="F41" s="3"/>
-    </x:row>
-    <x:row r="42" spans="2:6" ht="14.449999999999999">
+      <x:c r="K41" s="11" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="2:6" ht="14.199999999999999">
       <x:c r="B42" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C42" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D42" s="3"/>
       <x:c r="E42" s="3"/>
       <x:c r="F42" s="3"/>
     </x:row>
-    <x:row r="43" spans="1:11" ht="14.449999999999999">
+    <x:row r="43" spans="1:11" ht="14.199999999999999">
       <x:c r="A43" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B43" s="24" t="s">
-        <x:v>53</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C43" s="3"/>
       <x:c r="D43" s="3"/>
       <x:c r="E43" s="3"/>
       <x:c r="F43" s="3"/>
       <x:c r="K43" s="11" t="s">
-        <x:v>45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="2:6" ht="14.449999999999999">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="2:6" ht="14.199999999999999">
       <x:c r="B44" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C44" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D44" s="3"/>
       <x:c r="E44" s="3"/>
       <x:c r="F44" s="3"/>
     </x:row>
-    <x:row r="45" spans="1:5" ht="14.449999999999999">
+    <x:row r="45" spans="1:11" ht="14.199999999999999">
       <x:c r="A45" s="13" t="s">
-        <x:v>70</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B45" s="25" t="s">
-        <x:v>19</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C45" s="3"/>
       <x:c r="D45" s="3"/>
       <x:c r="E45" s="3"/>
-    </x:row>
-    <x:row r="46" spans="2:4" ht="14.449999999999999">
+      <x:c r="K45" s="11" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="2:4" ht="14.199999999999999">
       <x:c r="B46" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C46" s="3" t="s">
-        <x:v>108</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D46" s="3" t="s">
-        <x:v>110</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:6" ht="14.449999999999999">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:11" ht="14.199999999999999">
       <x:c r="A47" s="13" t="s">
-        <x:v>71</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B47" s="23" t="s">
-        <x:v>23</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C47" s="3"/>
       <x:c r="D47" s="3"/>
       <x:c r="E47" s="3"/>
       <x:c r="F47" s="3"/>
-    </x:row>
-    <x:row r="48" spans="2:6" ht="14.449999999999999">
+      <x:c r="K47" s="11" t="s">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="2:6" ht="14.199999999999999">
       <x:c r="B48" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C48" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D48" s="3"/>
       <x:c r="E48" s="3"/>
       <x:c r="F48" s="3"/>
     </x:row>
-    <x:row r="49" spans="1:3" ht="14.449999999999999">
+    <x:row r="49" spans="1:3" ht="14.199999999999999">
       <x:c r="A49" s="13" t="s">
-        <x:v>71</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B49" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C49" s="3"/>
     </x:row>
-    <x:row r="50" spans="2:3" ht="14.449999999999999">
+    <x:row r="50" spans="2:3" ht="14.199999999999999">
       <x:c r="B50" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C50" s="3" t="s">
-        <x:v>110</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="1:2" ht="14.449999999999999">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:2" ht="14.199999999999999">
       <x:c r="A51" s="13" t="s">
-        <x:v>73</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B51" s="4" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="2:2" ht="14.449999999999999">
+        <x:v>92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="2:2" ht="14.199999999999999">
       <x:c r="B52" s="3" t="s">
-        <x:v>109</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:4" ht="14.449999999999999">
+        <x:v>129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:11" ht="14.199999999999999">
       <x:c r="A53" s="13" t="s">
-        <x:v>73</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B53" s="25" t="s">
-        <x:v>55</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C53" s="3"/>
       <x:c r="D53" s="3"/>
-    </x:row>
-    <x:row r="54" spans="2:4" ht="14.449999999999999">
+      <x:c r="K53" s="11" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="2:4" ht="14.199999999999999">
       <x:c r="B54" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C54" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D54" s="3"/>
     </x:row>
-    <x:row r="55" spans="1:6" ht="14.449999999999999">
+    <x:row r="55" spans="1:11" ht="14.199999999999999">
       <x:c r="A55" s="13" t="s">
-        <x:v>80</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B55" s="23" t="s">
-        <x:v>168</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C55" s="3"/>
       <x:c r="D55" s="3"/>
       <x:c r="E55" s="3"/>
       <x:c r="F55" s="3"/>
-    </x:row>
-    <x:row r="56" spans="2:6" ht="14.449999999999999">
+      <x:c r="K55" s="11" t="s">
+        <x:v>179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="2:6" ht="14.199999999999999">
       <x:c r="B56" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C56" s="3"/>
       <x:c r="D56" s="3"/>
       <x:c r="E56" s="3"/>
       <x:c r="F56" s="3"/>
     </x:row>
-    <x:row r="57" spans="1:5" ht="14.449999999999999">
+    <x:row r="57" spans="1:11" ht="14.199999999999999">
       <x:c r="A57" s="13" t="s">
-        <x:v>76</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B57" s="25" t="s">
-        <x:v>10</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C57" s="3"/>
       <x:c r="D57" s="3"/>
       <x:c r="E57" s="3"/>
-    </x:row>
-    <x:row r="58" spans="2:5" ht="14.449999999999999">
+      <x:c r="K57" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="2:5" ht="14.199999999999999">
       <x:c r="B58" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D58" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E58" s="3"/>
     </x:row>
-    <x:row r="59" spans="1:11" ht="14.449999999999999">
+    <x:row r="59" spans="1:11" ht="14.199999999999999">
       <x:c r="A59" s="13" t="s">
-        <x:v>76</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B59" s="24" t="s">
-        <x:v>33</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C59" s="3"/>
       <x:c r="D59" s="3"/>
       <x:c r="E59" s="3"/>
       <x:c r="F59" s="3"/>
       <x:c r="K59" s="11" t="s">
-        <x:v>159</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="60" spans="2:6" ht="14.449999999999999">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="2:6" ht="14.199999999999999">
       <x:c r="B60" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C60" s="3" t="s">
-        <x:v>108</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D60" s="3"/>
       <x:c r="E60" s="3"/>
       <x:c r="F60" s="3"/>
     </x:row>
-    <x:row r="61" spans="1:2" ht="14.449999999999999">
+    <x:row r="61" spans="1:2" ht="14.199999999999999">
       <x:c r="A61" s="13" t="s">
-        <x:v>77</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B61" s="4" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="62" spans="2:2" ht="14.449999999999999">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="2:2" ht="14.199999999999999">
       <x:c r="B62" s="3" t="s">
-        <x:v>109</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="63" spans="1:6" ht="14.449999999999999">
+        <x:v>129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:11" ht="14.199999999999999">
       <x:c r="A63" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B63" s="24" t="s">
-        <x:v>59</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C63" s="3"/>
       <x:c r="D63" s="3"/>
       <x:c r="E63" s="3"/>
       <x:c r="F63" s="3"/>
-    </x:row>
-    <x:row r="64" spans="2:6" ht="14.449999999999999">
+      <x:c r="K63" s="11" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="2:6" ht="14.199999999999999">
       <x:c r="B64" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C64" s="3"/>
       <x:c r="D64" s="3"/>
       <x:c r="E64" s="3"/>
       <x:c r="F64" s="3"/>
     </x:row>
-    <x:row r="65" spans="1:6" ht="14.449999999999999">
+    <x:row r="65" spans="1:11" ht="14.199999999999999">
       <x:c r="A65" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B65" s="23" t="s">
-        <x:v>34</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C65" s="3"/>
       <x:c r="D65" s="3"/>
       <x:c r="E65" s="3"/>
       <x:c r="F65" s="3"/>
-    </x:row>
-    <x:row r="66" spans="2:6" ht="14.449999999999999">
+      <x:c r="K65" s="11" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="2:6" ht="14.199999999999999">
       <x:c r="B66" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C66" s="3"/>
       <x:c r="D66" s="3"/>
       <x:c r="E66" s="3"/>
       <x:c r="F66" s="3"/>
     </x:row>
-    <x:row r="67" spans="1:6" ht="14.449999999999999">
+    <x:row r="67" spans="1:11" ht="14.199999999999999">
       <x:c r="A67" s="18" t="s">
-        <x:v>81</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B67" s="23" t="s">
-        <x:v>22</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C67" s="3"/>
       <x:c r="D67" s="3"/>
       <x:c r="E67" s="3"/>
       <x:c r="F67" s="3"/>
-    </x:row>
-    <x:row r="68" spans="2:6" ht="14.449999999999999">
+      <x:c r="K67" s="11" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="2:6" ht="14.199999999999999">
       <x:c r="B68" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C68" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D68" s="3"/>
       <x:c r="E68" s="3"/>
       <x:c r="F68" s="3"/>
     </x:row>
-    <x:row r="69" spans="1:6" ht="14.449999999999999">
+    <x:row r="69" spans="1:11" ht="14.199999999999999">
       <x:c r="A69" s="13" t="s">
-        <x:v>81</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B69" s="24" t="s">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C69" s="3"/>
       <x:c r="D69" s="3"/>
       <x:c r="E69" s="3"/>
       <x:c r="F69" s="3"/>
-    </x:row>
-    <x:row r="70" spans="2:6" ht="14.449999999999999">
+      <x:c r="K69" s="11" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="2:6" ht="14.199999999999999">
       <x:c r="B70" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C70" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D70" s="3"/>
       <x:c r="E70" s="3"/>
       <x:c r="F70" s="3"/>
     </x:row>
-    <x:row r="71" spans="1:2" ht="14.449999999999999">
+    <x:row r="71" spans="1:2" ht="14.199999999999999">
       <x:c r="A71" s="13" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="B71" s="4" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="B71" s="4" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="72" spans="2:3" ht="14.449999999999999">
+    </x:row>
+    <x:row r="72" spans="2:3" ht="14.199999999999999">
       <x:c r="B72" s="3" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C72" s="3" t="s">
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:11" ht="14.199999999999999">
+      <x:c r="A73" s="13" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="C72" s="3" t="s">
-        <x:v>106</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="73" spans="1:3" ht="14.449999999999999">
-      <x:c r="A73" s="13" t="s">
-        <x:v>74</x:v>
-      </x:c>
       <x:c r="B73" s="23" t="s">
-        <x:v>63</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C73" s="3"/>
-    </x:row>
-    <x:row r="74" spans="2:3" ht="14.449999999999999">
+      <x:c r="K73" s="11" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="2:3" ht="14.199999999999999">
       <x:c r="B74" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C74" s="3" t="s">
-        <x:v>114</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="75" spans="1:5" ht="14.449999999999999">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:11" ht="14.199999999999999">
       <x:c r="A75" s="13" t="s">
-        <x:v>78</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B75" s="25" t="s">
-        <x:v>14</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C75" s="3"/>
       <x:c r="D75" s="3"/>
       <x:c r="E75" s="3"/>
-    </x:row>
-    <x:row r="76" spans="2:5" ht="14.449999999999999">
+      <x:c r="K75" s="11" t="s">
+        <x:v>178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="2:5" ht="14.199999999999999">
       <x:c r="B76" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C76" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D76" s="3"/>
       <x:c r="E76" s="3"/>
     </x:row>
-    <x:row r="77" spans="1:5" ht="14.449999999999999">
+    <x:row r="77" spans="1:11" ht="14.199999999999999">
       <x:c r="A77" s="13" t="s">
-        <x:v>75</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B77" s="25" t="s">
-        <x:v>4</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C77" s="3"/>
       <x:c r="D77" s="3"/>
       <x:c r="E77" s="3"/>
-    </x:row>
-    <x:row r="78" spans="2:5" ht="14.449999999999999">
+      <x:c r="K77" s="11" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="2:5" ht="14.199999999999999">
       <x:c r="B78" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C78" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D78" s="3"/>
       <x:c r="E78" s="3"/>
     </x:row>
-    <x:row r="79" spans="1:3" ht="14.449999999999999">
+    <x:row r="79" spans="1:3" ht="14.199999999999999">
       <x:c r="A79" s="13" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B79" s="4" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C79" s="3"/>
+    </x:row>
+    <x:row r="80" spans="2:4" ht="14.199999999999999">
+      <x:c r="B80" s="3" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C80" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D80" s="3" t="s">
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:3" ht="14.199999999999999">
+      <x:c r="A81" s="13" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="B81" s="4" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="C81" s="3"/>
+    </x:row>
+    <x:row r="82" spans="2:3" ht="14.199999999999999">
+      <x:c r="B82" s="3" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C82" s="3"/>
+    </x:row>
+    <x:row r="83" spans="1:2" ht="14.199999999999999">
+      <x:c r="A83" s="13" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B83" s="4" t="s">
+        <x:v>104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="2:2" ht="14.199999999999999">
+      <x:c r="B84" s="3" t="s">
+        <x:v>129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:11" ht="14.199999999999999">
+      <x:c r="A85" s="19" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B85" s="25" t="s">
         <x:v>87</x:v>
-      </x:c>
-      <x:c r="B79" s="4" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C79" s="3"/>
-    </x:row>
-    <x:row r="80" spans="2:4" ht="14.449999999999999">
-      <x:c r="B80" s="3" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C80" s="1" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D80" s="3" t="s">
-        <x:v>106</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="81" spans="1:3" ht="14.449999999999999">
-      <x:c r="A81" s="13" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="B81" s="4" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="C81" s="3"/>
-    </x:row>
-    <x:row r="82" spans="2:3" ht="14.449999999999999">
-      <x:c r="B82" s="3" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C82" s="3"/>
-    </x:row>
-    <x:row r="83" spans="1:2" ht="14.449999999999999">
-      <x:c r="A83" s="13" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="B83" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="84" spans="2:2" ht="14.449999999999999">
-      <x:c r="B84" s="3" t="s">
-        <x:v>109</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="85" spans="1:5" ht="14.449999999999999">
-      <x:c r="A85" s="19" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="B85" s="25" t="s">
-        <x:v>3</x:v>
       </x:c>
       <x:c r="C85" s="3"/>
       <x:c r="D85" s="3"/>
       <x:c r="E85" s="3"/>
-    </x:row>
-    <x:row r="86" spans="2:5" ht="14.449999999999999">
+      <x:c r="K85" s="11" t="s">
+        <x:v>181</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="2:5" ht="14.199999999999999">
       <x:c r="B86" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C86" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D86" s="3"/>
       <x:c r="E86" s="3"/>
     </x:row>
-    <x:row r="87" spans="1:5" ht="14.449999999999999">
+    <x:row r="87" spans="1:11" ht="14.199999999999999">
       <x:c r="A87" s="13" t="s">
-        <x:v>88</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B87" s="23" t="s">
-        <x:v>11</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C87" s="3"/>
       <x:c r="D87" s="3"/>
       <x:c r="E87" s="3"/>
-    </x:row>
-    <x:row r="88" spans="2:5" ht="14.449999999999999">
+      <x:c r="K87" s="11" t="s">
+        <x:v>182</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="2:5" ht="14.199999999999999">
       <x:c r="B88" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C88" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D88" s="3"/>
       <x:c r="E88" s="3"/>
     </x:row>
-    <x:row r="89" spans="1:5" ht="14.449999999999999">
+    <x:row r="89" spans="1:11" ht="14.199999999999999">
       <x:c r="A89" s="13" t="s">
-        <x:v>83</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B89" s="25" t="s">
-        <x:v>5</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C89" s="3"/>
       <x:c r="D89" s="3"/>
       <x:c r="E89" s="3"/>
-    </x:row>
-    <x:row r="90" spans="2:5" ht="14.449999999999999">
+      <x:c r="K89" s="11" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="2:5" ht="14.199999999999999">
       <x:c r="B90" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C90" s="3"/>
       <x:c r="D90" s="3"/>
       <x:c r="E90" s="3"/>
     </x:row>
-    <x:row r="91" spans="1:5" ht="14.449999999999999">
+    <x:row r="91" spans="1:5" ht="14.199999999999999">
       <x:c r="A91" s="20" t="s">
-        <x:v>86</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B91" s="9" t="s">
-        <x:v>1</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C91" s="3"/>
       <x:c r="D91" s="3"/>
       <x:c r="E91" s="3"/>
     </x:row>
-    <x:row r="92" spans="2:5" ht="14.449999999999999">
+    <x:row r="92" spans="2:5" ht="14.199999999999999">
       <x:c r="B92" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C92" s="3"/>
       <x:c r="D92" s="3"/>
       <x:c r="E92" s="3"/>
     </x:row>
-    <x:row r="93" spans="1:11" ht="14.449999999999999">
+    <x:row r="93" spans="1:11" ht="14.199999999999999">
       <x:c r="A93" s="13" t="s">
-        <x:v>89</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B93" s="24" t="s">
-        <x:v>12</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C93" s="3"/>
       <x:c r="D93" s="3"/>
       <x:c r="E93" s="3"/>
       <x:c r="K93" s="11" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="94" spans="2:5" ht="14.449999999999999">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="2:5" ht="14.199999999999999">
       <x:c r="B94" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C94" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D94" s="3"/>
       <x:c r="E94" s="3"/>
     </x:row>
-    <x:row r="95" spans="1:3" ht="14.449999999999999">
+    <x:row r="95" spans="1:3" ht="14.199999999999999">
       <x:c r="A95" s="13" t="s">
-        <x:v>82</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B95" s="4" t="s">
-        <x:v>54</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C95" s="3"/>
     </x:row>
-    <x:row r="96" spans="2:3" ht="14.449999999999999">
+    <x:row r="96" spans="2:3" ht="14.199999999999999">
       <x:c r="B96" s="3" t="s">
-        <x:v>108</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C96" s="3"/>
     </x:row>
-    <x:row r="97" spans="1:3" ht="14.449999999999999">
+    <x:row r="97" spans="1:3" ht="14.199999999999999">
       <x:c r="A97" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B97" s="4" t="s">
-        <x:v>57</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C97" s="3"/>
     </x:row>
-    <x:row r="98" spans="2:3" ht="14.449999999999999">
+    <x:row r="98" spans="2:3" ht="14.199999999999999">
       <x:c r="B98" s="3" t="s">
-        <x:v>108</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C98" s="3"/>
     </x:row>
-    <x:row r="99" spans="1:3" ht="14.449999999999999">
+    <x:row r="99" spans="1:3" ht="14.199999999999999">
       <x:c r="A99" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B99" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C99" s="3"/>
     </x:row>
-    <x:row r="100" spans="2:3" ht="14.449999999999999">
+    <x:row r="100" spans="2:3" ht="14.199999999999999">
       <x:c r="B100" s="3" t="s">
-        <x:v>108</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C100" s="3"/>
     </x:row>
-    <x:row r="101" spans="1:3" ht="14.449999999999999">
+    <x:row r="101" spans="1:3" ht="14.199999999999999">
       <x:c r="A101" s="15" t="s">
-        <x:v>91</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B101" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C101" s="3"/>
     </x:row>
-    <x:row r="102" spans="2:3" ht="14.449999999999999">
+    <x:row r="102" spans="2:3" ht="14.199999999999999">
       <x:c r="B102" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C102" s="3"/>
     </x:row>
-    <x:row r="103" spans="1:3" ht="14.449999999999999">
+    <x:row r="103" spans="1:3" ht="14.199999999999999">
       <x:c r="A103" s="13" t="s">
-        <x:v>92</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B103" s="4" t="s">
-        <x:v>167</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C103" s="3"/>
     </x:row>
-    <x:row r="104" spans="2:3" ht="14.449999999999999">
+    <x:row r="104" spans="2:3" ht="14.199999999999999">
       <x:c r="B104" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C104" s="3"/>
     </x:row>
-    <x:row r="105" spans="1:3" ht="14.449999999999999">
+    <x:row r="105" spans="1:3" ht="14.199999999999999">
       <x:c r="A105" s="13" t="s">
-        <x:v>98</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B105" s="4" t="s">
-        <x:v>30</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C105" s="11"/>
     </x:row>
-    <x:row r="106" spans="1:3" ht="14.449999999999999">
+    <x:row r="106" spans="1:3" ht="14.199999999999999">
       <x:c r="A106" s="1"/>
       <x:c r="B106" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C106" s="11"/>
     </x:row>
-    <x:row r="107" spans="1:5" ht="14.449999999999999">
+    <x:row r="107" spans="1:5" ht="14.199999999999999">
       <x:c r="A107" s="21" t="s">
-        <x:v>95</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B107" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C107" s="3"/>
       <x:c r="D107" s="3"/>
       <x:c r="E107" s="3"/>
     </x:row>
-    <x:row r="108" spans="2:5" ht="14.449999999999999">
+    <x:row r="108" spans="2:5" ht="14.199999999999999">
       <x:c r="B108" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C108" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D108" s="3"/>
       <x:c r="E108" s="3"/>
     </x:row>
-    <x:row r="109" spans="1:2" ht="14.449999999999999">
+    <x:row r="109" spans="1:11" ht="14.199999999999999">
       <x:c r="A109" s="21" t="s">
-        <x:v>96</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B109" s="24" t="s">
-        <x:v>0</x:v>
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="K109" s="11" t="s">
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="2:2">
       <x:c r="B110" s="1" t="s">
-        <x:v>113</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="111" spans="1:5" ht="14.449999999999999">
+        <x:v>133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:5" ht="14.199999999999999">
       <x:c r="A111" s="21" t="s">
-        <x:v>93</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B111" s="10" t="s">
-        <x:v>160</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="C111" s="3"/>
       <x:c r="D111" s="3"/>
       <x:c r="E111" s="3"/>
     </x:row>
-    <x:row r="112" spans="2:5" ht="14.449999999999999">
+    <x:row r="112" spans="2:5" ht="14.199999999999999">
       <x:c r="B112" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C112" s="3"/>
       <x:c r="D112" s="3"/>
       <x:c r="E112" s="3"/>
     </x:row>
-    <x:row r="113" spans="1:3" ht="14.449999999999999">
+    <x:row r="113" spans="1:3" ht="14.199999999999999">
       <x:c r="A113" s="13" t="s">
-        <x:v>97</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B113" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C113" s="3"/>
     </x:row>
-    <x:row r="114" spans="2:3" ht="14.449999999999999">
+    <x:row r="114" spans="2:3" ht="14.199999999999999">
       <x:c r="B114" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C114" s="3" t="s">
-        <x:v>110</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="115" spans="1:3" ht="14.449999999999999">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:3" ht="14.199999999999999">
       <x:c r="A115" s="13" t="s">
-        <x:v>94</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B115" s="4" t="s">
-        <x:v>60</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C115" s="3"/>
     </x:row>
-    <x:row r="116" spans="2:3" ht="14.449999999999999">
+    <x:row r="116" spans="2:3" ht="14.199999999999999">
       <x:c r="B116" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C116" s="3" t="s">
-        <x:v>108</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="121" spans="15:16" ht="14.449999999999999">
+        <x:v>128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="15:16" ht="14.199999999999999">
       <x:c r="O121" s="3"/>
       <x:c r="P121" s="3"/>
     </x:row>
-    <x:row r="122" spans="15:16" ht="14.449999999999999">
+    <x:row r="122" spans="15:16" ht="14.199999999999999">
       <x:c r="O122" s="3"/>
       <x:c r="P122" s="3"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:legacyDrawing r:id="rId1"/>
 </x:worksheet>
